--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -229,8 +229,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,7 +543,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -551,9 +553,10 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -568,11 +571,9 @@
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>4</v>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -599,11 +600,9 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -626,10 +625,10 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1"/>
@@ -646,8 +645,10 @@
         <v>44393</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="6"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.1.12.1 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=it83GZEKev4</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -654,7 +657,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -76,7 +76,19 @@
     <t xml:space="preserve">1.1.12.1 </t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=it83GZEKev4</t>
+    <t>https://www.youtube.com/watch?v=QMGVE9_0bzw</t>
+  </si>
+  <si>
+    <t>1.2.10.2</t>
+  </si>
+  <si>
+    <t>1.2.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.13.2 </t>
+  </si>
+  <si>
+    <t>1.3.14.1</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -619,9 +631,7 @@
       <c r="B7" s="2">
         <v>44392</v>
       </c>
-      <c r="C7" s="1">
-        <v>57</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="4">
         <v>1</v>
       </c>
@@ -654,8 +664,12 @@
       <c r="E8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>18</v>
@@ -666,12 +680,22 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2">
+        <v>44394</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -680,11 +704,19 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="2">
+        <v>44395</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>1.3.14.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-1VZDaKqn2s</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -697,7 +700,9 @@
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-1VZDaKqn2s</t>
+  </si>
+  <si>
+    <t>1.4.45.1</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -722,7 +725,9 @@
       <c r="F10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>1.4.45.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_PFm9BP2REc</t>
+  </si>
+  <si>
+    <t>1.4.44.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.8.5 </t>
+  </si>
+  <si>
+    <t>1.5.9.1</t>
   </si>
 </sst>
 </file>
@@ -564,7 +576,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -726,22 +738,34 @@
         <v>16</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="2">
+        <v>44396</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -750,11 +774,19 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="2">
+        <v>44397</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -108,24 +108,30 @@
   <si>
     <t>1.5.9.1</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3dH--C5HNWQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Prb9Q8QzDys</t>
+  </si>
+  <si>
+    <t>1.6.6.4</t>
+  </si>
+  <si>
+    <t>1.6.7.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -227,41 +233,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,7 +581,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -656,14 +661,14 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="1"/>
@@ -679,13 +684,13 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1"/>
@@ -705,13 +710,13 @@
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
@@ -731,13 +736,13 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="1"/>
@@ -757,17 +762,19 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -781,26 +788,38 @@
       <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="2">
+        <v>44398</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1758,40 +1777,40 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,191 +1889,191 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,543 +2150,543 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2706,10 +2725,10 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -2735,828 +2754,828 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3595,10 +3614,10 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -3624,62 +3643,62 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3718,10 +3737,10 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -3747,91 +3766,91 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>1.6.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZJ4t5xmyFH0</t>
+  </si>
+  <si>
+    <t>1.6.12.6</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>end time</t>
+  </si>
+  <si>
+    <t>35min 09 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.2.4 </t>
+  </si>
+  <si>
+    <t>1.7.3.1</t>
   </si>
 </sst>
 </file>
@@ -576,12 +597,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M100"/>
+  <dimension ref="A4:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -594,7 +615,7 @@
     <col min="6" max="6" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="46" customWidth="1"/>
+    <col min="9" max="9" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -613,9 +634,7 @@
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
@@ -642,7 +661,9 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -677,6 +698,9 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
       <c r="B8" s="2">
         <v>44393</v>
       </c>
@@ -703,6 +727,9 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
       <c r="B9" s="2">
         <v>44394</v>
       </c>
@@ -729,6 +756,9 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
       <c r="B10" s="2">
         <v>44395</v>
       </c>
@@ -755,6 +785,9 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
       <c r="B11" s="2">
         <v>44396</v>
       </c>
@@ -781,6 +814,9 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
       <c r="B12" s="2">
         <v>44397</v>
       </c>
@@ -807,40 +843,63 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>44398</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4">
-        <v>7</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44398</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="2">
+        <v>44398</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -854,17 +913,28 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44399</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
@@ -874,7 +944,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
@@ -884,7 +954,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
@@ -894,7 +964,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
@@ -904,7 +974,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
@@ -914,7 +984,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -924,7 +994,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -934,7 +1004,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="4"/>
@@ -944,7 +1014,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
@@ -954,7 +1024,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
@@ -964,7 +1034,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
@@ -974,7 +1044,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
@@ -984,7 +1054,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
@@ -994,7 +1064,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
@@ -1004,7 +1074,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
@@ -1693,6 +1763,16 @@
       <c r="G100" s="6"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>1.7.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LfgGcwcGmb0</t>
+  </si>
+  <si>
+    <t>1.7.13.5</t>
+  </si>
+  <si>
+    <t>40min 05 sec</t>
+  </si>
+  <si>
+    <t>1.8.3.1</t>
+  </si>
+  <si>
+    <t>1.8.6.2</t>
+  </si>
+  <si>
+    <t>1.8.7.1</t>
   </si>
 </sst>
 </file>
@@ -600,9 +618,9 @@
   <dimension ref="A4:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D12"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -901,7 +919,9 @@
         <v>38</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -930,19 +950,37 @@
       <c r="F17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="2">
+        <v>44399</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -955,10 +993,19 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44400</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="4">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,33 @@
   </si>
   <si>
     <t>1.8.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rhr8Qhc0E1I</t>
+  </si>
+  <si>
+    <t>1.8.22.1</t>
+  </si>
+  <si>
+    <t>1.8.21.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jl3l4SVRi4A</t>
+  </si>
+  <si>
+    <t>1.8.22.5</t>
+  </si>
+  <si>
+    <t>11min 06 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.4.8 </t>
+  </si>
+  <si>
+    <t>2.1.5.1</t>
   </si>
 </sst>
 </file>
@@ -618,9 +645,9 @@
   <dimension ref="A4:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1033,16 @@
       <c r="E20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -1022,22 +1055,49 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44401</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+      <c r="B23" s="2">
+        <v>44401</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -1052,11 +1112,22 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44402</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="4">
+        <v>11</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>2.1.5.1</t>
+  </si>
+  <si>
+    <t>viedo not avaiable</t>
+  </si>
+  <si>
+    <t>2.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.7.5 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HYI5iS5Dt5k&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t>2.2.8.1</t>
   </si>
 </sst>
 </file>
@@ -301,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -337,6 +352,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,9 +661,9 @@
   <dimension ref="A4:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1128,9 +1144,13 @@
       <c r="F25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -1143,14 +1163,29 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44403</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="4">
+        <v>12</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -1163,11 +1198,22 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44404</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="4">
+        <v>13</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -187,9 +187,6 @@
     <t>2.1.5.1</t>
   </si>
   <si>
-    <t>viedo not avaiable</t>
-  </si>
-  <si>
     <t>2.2.2.1</t>
   </si>
   <si>
@@ -200,6 +197,18 @@
   </si>
   <si>
     <t>2.2.8.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7sMRD5MZR0U&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t>2.1.11.6</t>
+  </si>
+  <si>
+    <t>35min 41sec</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
   </si>
 </sst>
 </file>
@@ -658,12 +667,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M101"/>
+  <dimension ref="A4:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1144,86 +1153,96 @@
       <c r="F25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>44402</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4">
+        <v>11</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44403</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4">
+        <v>12</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44403</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4">
-        <v>12</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="F28" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="21" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44404</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="4">
-        <v>13</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44404</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="4">
+        <v>13</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1937,6 +1956,16 @@
       <c r="G101" s="6"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -61,9 +61,6 @@
     <t>https://www.youtube.com/watch?v=QMGVE9_0bzw</t>
   </si>
   <si>
-    <t>1.2.10.2</t>
-  </si>
-  <si>
     <t>1.2.11.1</t>
   </si>
   <si>
@@ -194,6 +191,57 @@
   </si>
   <si>
     <t xml:space="preserve">2.2.1.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.14.4 </t>
+  </si>
+  <si>
+    <t>15min 46 sec</t>
+  </si>
+  <si>
+    <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.10.2 </t>
+  </si>
+  <si>
+    <t>24 mn 12 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.14.7 </t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>14min 01 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14.8 </t>
+  </si>
+  <si>
+    <t>full time</t>
+  </si>
+  <si>
+    <t>1.4.46.3</t>
+  </si>
+  <si>
+    <t>12 min 03 sec</t>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+  </si>
+  <si>
+    <t>18 min 59 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.11.5 </t>
   </si>
 </sst>
 </file>
@@ -269,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -293,6 +341,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -598,12 +647,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M102"/>
+  <dimension ref="A4:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -663,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
@@ -689,7 +738,9 @@
       <c r="G7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
@@ -699,29 +750,14 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44393</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -729,27 +765,29 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -757,28 +795,27 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
       <c r="B10" s="2">
-        <v>44395</v>
+        <v>44393</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -786,29 +823,14 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44396</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -816,27 +838,29 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>44397</v>
+        <v>44394</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -844,312 +868,379 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>44394</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44398</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
       <c r="B15" s="2">
-        <v>44398</v>
+        <v>44395</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="2">
+        <v>44395</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44399</v>
-      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
       <c r="B18" s="2">
-        <v>44399</v>
+        <v>44396</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>44396</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44400</v>
-      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44397</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>44401</v>
+        <v>44397</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>44401</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44398</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>11</v>
-      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>44402</v>
+        <v>44398</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>44402</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="4">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44399</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>44403</v>
+        <v>44399</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
@@ -1159,28 +1250,34 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>44404</v>
+        <v>44400</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
@@ -1190,27 +1287,58 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44401</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>44401</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
@@ -1220,27 +1348,58 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44402</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>44402</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -1250,37 +1409,67 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44403</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44404</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -1290,7 +1479,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -1300,7 +1489,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -1310,7 +1499,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -1320,7 +1509,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -1330,7 +1519,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -1340,7 +1529,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -1350,7 +1539,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -1900,6 +2089,106 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -242,6 +242,24 @@
   </si>
   <si>
     <t xml:space="preserve">1.5.11.5 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7TMEEh6MVgk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.12.8 </t>
+  </si>
+  <si>
+    <t>34 min 24 sec</t>
+  </si>
+  <si>
+    <t>2.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1.5 </t>
+  </si>
+  <si>
+    <t>2.3.2.1</t>
   </si>
 </sst>
 </file>
@@ -650,9 +668,9 @@
   <dimension ref="A4:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1463,21 +1481,39 @@
       <c r="F40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="H40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
@@ -1490,11 +1526,22 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44405</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,51 @@
   </si>
   <si>
     <t>2.3.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hRC1eWSFuP8&amp;t=1964s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.10.3 </t>
+  </si>
+  <si>
+    <t>2.3.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DeVzCvcMoNg&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.14.6 </t>
+  </si>
+  <si>
+    <t>16 min 35 sec</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.10.3 </t>
+  </si>
+  <si>
+    <t>2.4.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ljkv8RwVI_U&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.14.5 </t>
+  </si>
+  <si>
+    <t>23 min 16 sec</t>
+  </si>
+  <si>
+    <t>2.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.2.7 </t>
+  </si>
+  <si>
+    <t>2.5.3.1</t>
   </si>
 </sst>
 </file>
@@ -668,9 +713,9 @@
   <dimension ref="A4:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1542,9 +1587,15 @@
       <c r="F43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="G43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
@@ -1557,24 +1608,55 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="A45" s="1">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44406</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="B46" s="2">
+        <v>44406</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
@@ -1587,26 +1669,57 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="A48" s="1">
+        <v>16</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44407</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>44407</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -1616,17 +1729,28 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44408</v>
+      </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -1636,7 +1760,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -1646,7 +1770,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -1656,7 +1780,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -1666,7 +1790,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -1676,7 +1800,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -1686,7 +1810,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -1696,7 +1820,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -1706,7 +1830,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -1716,7 +1840,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -1726,7 +1850,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -1736,7 +1860,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -1746,7 +1870,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -305,6 +305,36 @@
   </si>
   <si>
     <t>2.5.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.9.6 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bd25l6gv5mc&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=3</t>
+  </si>
+  <si>
+    <t>2.5.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.12.5 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8kJCRiQgw7A</t>
+  </si>
+  <si>
+    <t>21 mn 47 Sec</t>
+  </si>
+  <si>
+    <t>2.6.1.1</t>
+  </si>
+  <si>
+    <t>2.6.4.1</t>
+  </si>
+  <si>
+    <t>2.6.3.6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RIL3UTDykuA&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
   </si>
 </sst>
 </file>
@@ -715,7 +745,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1746,9 +1776,15 @@
       <c r="F51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="G51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
@@ -1761,24 +1797,55 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+      <c r="A53" s="1">
+        <v>18</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44409</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="B54" s="2">
+        <v>44409</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
@@ -1791,14 +1858,27 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+      <c r="A56" s="1">
+        <v>19</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44410</v>
+      </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
@@ -2361,7 +2441,12 @@
       <c r="I112" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I51" r:id="rId1"/>
+    <hyperlink ref="I53" r:id="rId2"/>
+    <hyperlink ref="I54" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -335,6 +335,30 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RIL3UTDykuA&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.9.8 </t>
+  </si>
+  <si>
+    <t>2.6.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCvFITU7p4U&amp;t=15s</t>
+  </si>
+  <si>
+    <t>15min 29 Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.12.6 </t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.7.3 </t>
+  </si>
+  <si>
+    <t>3.1.8.1</t>
   </si>
 </sst>
 </file>
@@ -743,9 +767,9 @@
   <dimension ref="A4:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1874,8 +1898,12 @@
       <c r="F56" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>106</v>
       </c>
@@ -1891,24 +1919,55 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="A58" s="1">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44411</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+      <c r="B59" s="2">
+        <v>44411</v>
+      </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
@@ -1921,11 +1980,22 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
+      <c r="A61" s="1">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44412</v>
+      </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="6"/>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
   <si>
     <t>Date</t>
   </si>
@@ -359,6 +359,51 @@
   </si>
   <si>
     <t>3.1.8.1</t>
+  </si>
+  <si>
+    <t>24 min 11 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.11.8 </t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.4.5 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9t7kL0yX4DE&amp;t=1452s</t>
+  </si>
+  <si>
+    <t>3.2.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.11.3 </t>
+  </si>
+  <si>
+    <t>35 min 58 sec</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YgqQjd_YU1w</t>
+  </si>
+  <si>
+    <t>3.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2.2 </t>
+  </si>
+  <si>
+    <t>3.3.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1rk7PbNOQOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.9.2 </t>
+  </si>
+  <si>
+    <t>3.3.10.1</t>
   </si>
 </sst>
 </file>
@@ -764,12 +809,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M112"/>
+  <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -781,7 +826,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1996,19 +2041,39 @@
       <c r="F61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="G61" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
+      <c r="B62" s="2">
+        <v>44412</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
@@ -2021,26 +2086,57 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+      <c r="A64" s="1">
+        <v>22</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44413</v>
+      </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>44413</v>
+      </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -2050,17 +2146,34 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44414</v>
+      </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -2070,17 +2183,28 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44415</v>
+      </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="6"/>
+      <c r="D69" s="4">
+        <v>3</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -2090,7 +2214,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -2100,7 +2224,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -2110,7 +2234,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -2120,7 +2244,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -2130,7 +2254,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -2140,7 +2264,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -2150,7 +2274,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -2160,7 +2284,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -2170,7 +2294,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -2180,7 +2304,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -2499,16 +2623,6 @@
       <c r="G111" s="6"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -404,6 +404,42 @@
   </si>
   <si>
     <t>3.3.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ojs_TaDVqdw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.11.5 </t>
+  </si>
+  <si>
+    <t>9 min 40 Sec</t>
+  </si>
+  <si>
+    <t>3.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.8.7 </t>
+  </si>
+  <si>
+    <t>3.4.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.11.6 </t>
+  </si>
+  <si>
+    <t>20 min 37 sec</t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.5.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kmgZHBhtdbs&amp;t=698s</t>
+  </si>
+  <si>
+    <t>3.5.6.1</t>
   </si>
 </sst>
 </file>
@@ -812,9 +848,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2200,19 +2236,39 @@
       <c r="F69" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="G69" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
+      <c r="B70" s="2">
+        <v>44415</v>
+      </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
@@ -2225,24 +2281,55 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
+      <c r="A72" s="1">
+        <v>25</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44416</v>
+      </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+      <c r="B73" s="2">
+        <v>44416</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
@@ -2255,11 +2342,22 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
+      <c r="A75" s="1">
+        <v>26</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44417</v>
+      </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="6"/>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G75" s="6"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -440,6 +440,33 @@
   </si>
   <si>
     <t>3.5.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xVEm5pXGAlQ</t>
+  </si>
+  <si>
+    <t>23 min 06 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.11.5 </t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.3.4 </t>
+  </si>
+  <si>
+    <t>4.1.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.9.3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sQ_uv0S10-4&amp;t=682s</t>
+  </si>
+  <si>
+    <t>4.1.10.1</t>
   </si>
 </sst>
 </file>
@@ -848,9 +875,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -863,7 +890,7 @@
     <col min="6" max="6" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="138.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2358,19 +2385,39 @@
       <c r="F75" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="G75" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
+      <c r="B76" s="2">
+        <v>44417</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
@@ -2383,14 +2430,31 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
+      <c r="A78" s="1">
+        <v>27</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44418</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
@@ -2403,11 +2467,22 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
+      <c r="A80" s="1">
+        <v>28</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44419</v>
+      </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="6"/>
+      <c r="D80" s="4">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G80" s="6"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -467,6 +467,24 @@
   </si>
   <si>
     <t>4.1.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-rfz64Ji970&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.11.4 </t>
+  </si>
+  <si>
+    <t>11 min 09 sec</t>
+  </si>
+  <si>
+    <t>4.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.6.5 </t>
+  </si>
+  <si>
+    <t>4.2.7.1</t>
   </si>
 </sst>
 </file>
@@ -875,9 +893,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2483,21 +2501,41 @@
       <c r="F80" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
+      <c r="G80" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>44419</v>
+      </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -2507,17 +2545,28 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44420</v>
+      </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="6"/>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G83" s="6"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -2527,7 +2576,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -2537,7 +2586,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -2547,7 +2596,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -2557,7 +2606,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -2567,7 +2616,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -2577,7 +2626,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -2587,7 +2636,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -2597,7 +2646,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -2607,7 +2656,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -2617,7 +2666,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -2627,7 +2676,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -2637,7 +2686,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -485,6 +485,24 @@
   </si>
   <si>
     <t>4.2.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q7Z7jQHsgMw&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.11.3 </t>
+  </si>
+  <si>
+    <t>24 min 36 sec</t>
+  </si>
+  <si>
+    <t>4.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.5.1 </t>
+  </si>
+  <si>
+    <t>4.3.6.1</t>
   </si>
 </sst>
 </file>
@@ -893,9 +911,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2562,19 +2580,39 @@
       <c r="F83" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="G83" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="B84" s="2">
+        <v>44420</v>
+      </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
@@ -2587,11 +2625,22 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" s="1">
+        <v>29</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44421</v>
+      </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="6"/>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G86" s="6"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -503,6 +503,27 @@
   </si>
   <si>
     <t>4.3.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qr33iTz_cB0&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.13.8 </t>
+  </si>
+  <si>
+    <t>29 min 33 sec</t>
+  </si>
+  <si>
+    <t>4.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.3.3 </t>
+  </si>
+  <si>
+    <t>4.4.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kwACzB5gsXo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
   </si>
 </sst>
 </file>
@@ -910,10 +931,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2641,19 +2662,39 @@
       <c r="F86" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="G86" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="B87" s="2">
+        <v>44421</v>
+      </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
@@ -2666,14 +2707,27 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" s="1">
+        <v>30</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44422</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="6"/>
+      <c r="D89" s="4">
+        <v>2</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G89" s="6"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kwACzB5gsXo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.11.4 </t>
+  </si>
+  <si>
+    <t>4.4.12.1</t>
   </si>
 </sst>
 </file>
@@ -931,10 +937,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2723,8 +2729,12 @@
       <c r="F89" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I89" s="1" t="s">
         <v>169</v>
       </c>
@@ -2740,11 +2750,22 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" s="1">
+        <v>31</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44423</v>
+      </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="6"/>
+      <c r="D91" s="4">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G91" s="6"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
@@ -530,6 +530,42 @@
   </si>
   <si>
     <t>4.4.12.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=beryY8ZIHKU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.12.5 </t>
+  </si>
+  <si>
+    <t>12 min 20 Sec</t>
+  </si>
+  <si>
+    <t>4.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.11.2 </t>
+  </si>
+  <si>
+    <t>34 min 36 sec</t>
+  </si>
+  <si>
+    <t>4.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.1.5 </t>
+  </si>
+  <si>
+    <t>4.6.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sfhvZO2eFBk&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.6.7 </t>
+  </si>
+  <si>
+    <t>4.6.7.1</t>
   </si>
 </sst>
 </file>
@@ -938,9 +974,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2766,29 +2802,63 @@
       <c r="F91" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="G91" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="B92" s="2">
+        <v>44423</v>
+      </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="B93" s="2">
+        <v>44423</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -2801,14 +2871,31 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" s="1">
+        <v>32</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44424</v>
+      </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
@@ -2820,17 +2907,28 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>33</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44425</v>
+      </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="6"/>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G97" s="6"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -2840,7 +2938,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -2850,7 +2948,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -2860,7 +2958,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -2870,7 +2968,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -2880,7 +2978,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -2890,7 +2988,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -2900,7 +2998,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -2910,7 +3008,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -2920,7 +3018,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -2930,7 +3028,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -2940,7 +3038,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -2950,7 +3048,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -2960,7 +3058,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -566,6 +566,33 @@
   </si>
   <si>
     <t>4.6.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JprmQJGGzo8</t>
+  </si>
+  <si>
+    <t>13 min 42 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.9.4 </t>
+  </si>
+  <si>
+    <t>4.7.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7.15.7 </t>
+  </si>
+  <si>
+    <t>5.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q5h0fUJIlJ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.7.4 </t>
+  </si>
+  <si>
+    <t>5.1.8.1</t>
   </si>
 </sst>
 </file>
@@ -974,9 +1001,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2924,19 +2951,39 @@
       <c r="F97" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="G97" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
+      <c r="B98" s="2">
+        <v>44425</v>
+      </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
@@ -2949,14 +2996,31 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
+      <c r="A100" s="1">
+        <v>34</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44426</v>
+      </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
@@ -2969,10 +3033,19 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
+      <c r="A102" s="1">
+        <v>35</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44427</v>
+      </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
+      <c r="D102" s="4">
+        <v>2</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
   <si>
     <t>Date</t>
   </si>
@@ -593,6 +593,27 @@
   </si>
   <si>
     <t>5.1.8.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a4nzUPkhXC8</t>
+  </si>
+  <si>
+    <t>22 sec 10 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.11.4 </t>
+  </si>
+  <si>
+    <t>5.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.5.6 </t>
+  </si>
+  <si>
+    <t>5.2.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jeZGrx5pUuE</t>
   </si>
 </sst>
 </file>
@@ -1001,9 +1022,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3046,20 +3067,42 @@
       <c r="E102" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="F102" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
+      <c r="B103" s="2">
+        <v>44427</v>
+      </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
@@ -3072,14 +3115,27 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
+      <c r="A105" s="1">
+        <v>36</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44428</v>
+      </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="6"/>
+      <c r="D105" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G105" s="6"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="I105" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
   <si>
     <t>Date</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=jeZGrx5pUuE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.10.7 </t>
+  </si>
+  <si>
+    <t>5.2.11.1</t>
   </si>
 </sst>
 </file>
@@ -1022,9 +1028,9 @@
   <dimension ref="A4:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3131,8 +3137,12 @@
       <c r="F105" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="1"/>
+      <c r="G105" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>199</v>
       </c>
@@ -3148,11 +3158,22 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
+      <c r="A107" s="1">
+        <v>37</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44429</v>
+      </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="6"/>
+      <c r="D107" s="4">
+        <v>3</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G107" s="6"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -598,9 +598,6 @@
     <t>https://www.youtube.com/watch?v=a4nzUPkhXC8</t>
   </si>
   <si>
-    <t>22 sec 10 min</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.11.4 </t>
   </si>
   <si>
@@ -620,6 +617,48 @@
   </si>
   <si>
     <t>5.2.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Orsg2JVGY4M&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.12.2 </t>
+  </si>
+  <si>
+    <t>22 min 10 Sec</t>
+  </si>
+  <si>
+    <t>5 min 18 sec</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.6.3 </t>
+  </si>
+  <si>
+    <t>5.3.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XLlM5p3mbOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.12.2 </t>
+  </si>
+  <si>
+    <t>27 min 29 sec</t>
+  </si>
+  <si>
+    <t>5.4.1.1</t>
+  </si>
+  <si>
+    <t>5.4.2.4</t>
+  </si>
+  <si>
+    <t>23/8/0201</t>
+  </si>
+  <si>
+    <t>5.4.3.1</t>
   </si>
 </sst>
 </file>
@@ -1025,12 +1064,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M111"/>
+  <dimension ref="A4:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3077,10 +3116,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>193</v>
@@ -3095,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="E103" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>69</v>
@@ -3132,19 +3171,19 @@
         <v>2</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>69</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3169,24 +3208,44 @@
         <v>3</v>
       </c>
       <c r="E107" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F107" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
+      <c r="B108" s="2">
+        <v>44429</v>
+      </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
@@ -3199,24 +3258,734 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
+      <c r="A110" s="1">
+        <v>38</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44430</v>
+      </c>
       <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="D110" s="4">
+        <v>2</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
+      <c r="B111" s="2">
+        <v>44430</v>
+      </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>39</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="4">
+        <v>2</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" s="13"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="2"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -655,10 +655,16 @@
     <t>5.4.2.4</t>
   </si>
   <si>
-    <t>23/8/0201</t>
-  </si>
-  <si>
     <t>5.4.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rDYz3bfegwg&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.9.4 </t>
+  </si>
+  <si>
+    <t>5.4.10.1</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1075,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3322,20 +3328,28 @@
       <c r="A113" s="1">
         <v>39</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>213</v>
+      <c r="B113" s="2">
+        <v>44431</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="4">
         <v>2</v>
       </c>
       <c r="E113" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F113" s="13"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
@@ -3348,11 +3362,22 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
+      <c r="A115" s="1">
+        <v>40</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44432</v>
+      </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
+      <c r="D115" s="4">
+        <v>3</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -665,6 +665,36 @@
   </si>
   <si>
     <t>5.4.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XCqef6t1zv8&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.12.3 </t>
+  </si>
+  <si>
+    <t>16 min 52 sec</t>
+  </si>
+  <si>
+    <t>5.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.8.3 </t>
+  </si>
+  <si>
+    <t>5.5.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bJE3gmuQ2Xo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.24.1 </t>
+  </si>
+  <si>
+    <t>16 min 22 sec</t>
+  </si>
+  <si>
+    <t>5.6.1.1</t>
   </si>
 </sst>
 </file>
@@ -1073,9 +1103,9 @@
   <dimension ref="A4:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3378,19 +3408,39 @@
       <c r="F115" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="1"/>
+      <c r="G115" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
+      <c r="B116" s="2">
+        <v>44432</v>
+      </c>
       <c r="C116" s="1"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="1"/>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
@@ -3403,24 +3453,53 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
+      <c r="A118" s="1">
+        <v>41</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44433</v>
+      </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="1"/>
+      <c r="D118" s="4">
+        <v>2</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
+      <c r="B119" s="2">
+        <v>44433</v>
+      </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="1"/>
+      <c r="H119" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>5.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.16.1 </t>
+  </si>
+  <si>
+    <t>5.6.17.1</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1109,9 @@
   <dimension ref="A4:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
+      <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3493,7 +3499,9 @@
       <c r="F119" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="12"/>
+      <c r="G119" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="H119" s="12" t="s">
         <v>69</v>
       </c>
@@ -3512,10 +3520,19 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="2"/>
+      <c r="A121" s="1">
+        <v>42</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44434</v>
+      </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="4">
+        <v>2</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="F121" s="13"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -701,6 +701,24 @@
   </si>
   <si>
     <t>5.6.17.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GfCZkN08BCw&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.23.1 </t>
+  </si>
+  <si>
+    <t>7 min 44 sec</t>
+  </si>
+  <si>
+    <t>5.7.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7.26.1 </t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -1109,9 +1127,9 @@
   <dimension ref="A4:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3533,20 +3551,42 @@
       <c r="E121" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="1"/>
+      <c r="F121" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="2"/>
+      <c r="B122" s="2">
+        <v>44434</v>
+      </c>
       <c r="C122" s="1"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="1"/>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
@@ -3559,11 +3599,22 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="2"/>
+      <c r="A124" s="1">
+        <v>43</v>
+      </c>
+      <c r="B124" s="2">
+        <v>44435</v>
+      </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="13"/>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="1"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="244">
   <si>
     <t>Date</t>
   </si>
@@ -719,6 +719,33 @@
   </si>
   <si>
     <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9KmsdmpW240&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.6.7 </t>
+  </si>
+  <si>
+    <t>6.1.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V_Xufq2-7x4&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t>6.1.11.6</t>
+  </si>
+  <si>
+    <t>28 min 15 sec</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.5.5 </t>
+  </si>
+  <si>
+    <t>6.2.6.1</t>
   </si>
 </sst>
 </file>
@@ -1127,9 +1154,9 @@
   <dimension ref="A4:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3615,9 +3642,15 @@
       <c r="F124" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="1"/>
+      <c r="G124" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
@@ -3630,24 +3663,55 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="2"/>
+      <c r="A126" s="1">
+        <v>44</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44436</v>
+      </c>
       <c r="C126" s="1"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="1"/>
+      <c r="D126" s="4">
+        <v>2</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
+      <c r="B127" s="2">
+        <v>44436</v>
+      </c>
       <c r="C127" s="1"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="1"/>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
@@ -3659,17 +3723,28 @@
       <c r="H128" s="12"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="2"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44437</v>
+      </c>
       <c r="C129" s="1"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="13"/>
+      <c r="D129" s="4">
+        <v>2</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="4"/>
@@ -3679,7 +3754,7 @@
       <c r="H130" s="12"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4"/>
@@ -3689,7 +3764,7 @@
       <c r="H131" s="12"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="4"/>
@@ -3699,7 +3774,7 @@
       <c r="H132" s="12"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="4"/>
@@ -3709,7 +3784,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
@@ -3719,7 +3794,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
@@ -3729,7 +3804,7 @@
       <c r="H135" s="12"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4"/>
@@ -3739,7 +3814,7 @@
       <c r="H136" s="12"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4"/>
@@ -3749,7 +3824,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
@@ -3759,7 +3834,7 @@
       <c r="H138" s="12"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="4"/>
@@ -3769,7 +3844,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4"/>
@@ -3779,7 +3854,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="4"/>
@@ -3789,7 +3864,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="4"/>
@@ -3799,7 +3874,7 @@
       <c r="H142" s="12"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="4"/>
@@ -3809,7 +3884,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="4"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -746,6 +746,45 @@
   </si>
   <si>
     <t>6.2.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lvrqEkf9V_k&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.11.4 </t>
+  </si>
+  <si>
+    <t>33 min 49 sec</t>
+  </si>
+  <si>
+    <t>6.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.3.3 </t>
+  </si>
+  <si>
+    <t>6.3.3.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=97ysNnre6qo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.11.6 </t>
+  </si>
+  <si>
+    <t>36 min 18 sec</t>
+  </si>
+  <si>
+    <t>6.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4.5.7 </t>
+  </si>
+  <si>
+    <t>6.4.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YiGm3gzCHRQ</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1195,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3740,19 +3779,39 @@
       <c r="F129" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="1"/>
+      <c r="G129" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="2"/>
+      <c r="B130" s="2">
+        <v>44437</v>
+      </c>
       <c r="C130" s="1"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="1"/>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
@@ -3765,24 +3824,55 @@
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
+      <c r="A132" s="1">
+        <v>46</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44438</v>
+      </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="1"/>
+      <c r="D132" s="4">
+        <v>2</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
+      <c r="B133" s="2">
+        <v>44438</v>
+      </c>
       <c r="C133" s="1"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="1"/>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
@@ -3795,14 +3885,25 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="2"/>
+      <c r="A135" s="1">
+        <v>47</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44439</v>
+      </c>
       <c r="C135" s="1"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="12"/>
+      <c r="D135" s="4">
+        <v>2</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="F135" s="13"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="1"/>
+      <c r="I135" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="262">
   <si>
     <t>Date</t>
   </si>
@@ -785,6 +785,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=YiGm3gzCHRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4.11.4 </t>
+  </si>
+  <si>
+    <t>26 min 15 sec</t>
+  </si>
+  <si>
+    <t>6.5.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5.11.4 </t>
+  </si>
+  <si>
+    <t>6.6.1.1</t>
   </si>
 </sst>
 </file>
@@ -1193,9 +1208,9 @@
   <dimension ref="A4:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3898,22 +3913,42 @@
       <c r="E135" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
+      <c r="F135" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
+      <c r="B136" s="2">
+        <v>44439</v>
+      </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="1"/>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
@@ -3929,7 +3964,9 @@
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="12"/>
+      <c r="E138" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="F138" s="13"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
   <si>
     <t>Date</t>
   </si>
@@ -800,6 +800,27 @@
   </si>
   <si>
     <t>6.6.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MvMDJN1r8uU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6.11.6 </t>
+  </si>
+  <si>
+    <t>45 min 20 sec</t>
+  </si>
+  <si>
+    <t>7.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.4.3 </t>
+  </si>
+  <si>
+    <t>7.1.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5artXy5apSY&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1228,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+      <selection pane="bottomLeft" activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3961,26 +3982,55 @@
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
+      <c r="A138" s="1">
+        <v>48</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44440</v>
+      </c>
       <c r="C138" s="1"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="1"/>
+      <c r="F138" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="2"/>
+      <c r="B139" s="2">
+        <v>44440</v>
+      </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="1"/>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
@@ -3993,14 +4043,27 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="2"/>
+      <c r="A141" s="1">
+        <v>49</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44441</v>
+      </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="13"/>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="1"/>
+      <c r="I141" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -821,6 +821,39 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5artXy5apSY&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.20.1 </t>
+  </si>
+  <si>
+    <t>40 min 05 sec</t>
+  </si>
+  <si>
+    <t>7.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.2.3 </t>
+  </si>
+  <si>
+    <t>7.2.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mQqCjPIpxrY&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.20.1 </t>
+  </si>
+  <si>
+    <t>40 min 46 sec</t>
+  </si>
+  <si>
+    <t>7.3.1.1</t>
+  </si>
+  <si>
+    <t>7.3.2.2</t>
+  </si>
+  <si>
+    <t>7.3.3.1</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1261,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="J141" sqref="J141"/>
+      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4051,7 +4084,7 @@
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>267</v>
@@ -4059,21 +4092,39 @@
       <c r="F141" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
+      <c r="G141" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>270</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="2"/>
+      <c r="B142" s="2">
+        <v>44441</v>
+      </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="1"/>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
@@ -4086,26 +4137,57 @@
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="2"/>
+      <c r="A144" s="1">
+        <v>50</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44442</v>
+      </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="2"/>
+      <c r="D144" s="4">
+        <v>2</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>44442</v>
+      </c>
       <c r="C145" s="1"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="4"/>
@@ -4115,17 +4197,28 @@
       <c r="H146" s="12"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>51</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44443</v>
+      </c>
       <c r="C147" s="1"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="13"/>
+      <c r="D147" s="4">
+        <v>2</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="4"/>
@@ -4135,7 +4228,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
@@ -4145,7 +4238,7 @@
       <c r="H149" s="12"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4"/>
@@ -4155,7 +4248,7 @@
       <c r="H150" s="12"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4"/>
@@ -4165,7 +4258,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
@@ -4175,7 +4268,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="4"/>
@@ -4185,7 +4278,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="4"/>
@@ -4195,7 +4288,7 @@
       <c r="H154" s="12"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
@@ -4205,7 +4298,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="4"/>
@@ -4215,7 +4308,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="4"/>
@@ -4225,7 +4318,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4"/>
@@ -4235,7 +4328,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4"/>
@@ -4245,7 +4338,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4"/>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="294">
   <si>
     <t>Date</t>
   </si>
@@ -860,6 +860,42 @@
   </si>
   <si>
     <t>padam</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-WTz746diP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.20.1 </t>
+  </si>
+  <si>
+    <t>39 min 20 sec</t>
+  </si>
+  <si>
+    <t>7.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.2.5 </t>
+  </si>
+  <si>
+    <t>7.4.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lW1xM4z2jGk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.22.1 </t>
+  </si>
+  <si>
+    <t>7.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P8BJioI5Mzg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.25.2 </t>
+  </si>
+  <si>
+    <t>PADA PAARAAYAM ENDS HERE</t>
   </si>
 </sst>
 </file>
@@ -922,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1016,12 +1052,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,6 +1221,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1461,11 +1549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="4" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4368,90 +4456,146 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
-      <c r="B144" s="41"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="13"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="14"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="39">
+      <c r="A145" s="37">
         <v>51</v>
       </c>
-      <c r="B145" s="42">
+      <c r="B145" s="57">
         <v>44443</v>
       </c>
-      <c r="C145" s="44">
+      <c r="C145" s="45">
         <v>2</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="14"/>
+      <c r="E145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="14"/>
+      <c r="B146" s="58">
+        <v>44443</v>
+      </c>
+      <c r="C146" s="44">
+        <v>1</v>
+      </c>
+      <c r="D146" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G146" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="38"/>
-      <c r="B147" s="41"/>
+      <c r="B147" s="59"/>
       <c r="C147" s="43"/>
-      <c r="D147" s="8"/>
+      <c r="D147" s="62"/>
       <c r="E147" s="7"/>
       <c r="F147" s="47"/>
       <c r="G147" s="47"/>
       <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="17"/>
+      <c r="A148" s="37">
+        <v>52</v>
+      </c>
+      <c r="B148" s="57">
+        <v>44444</v>
+      </c>
+      <c r="C148" s="45">
+        <v>2</v>
+      </c>
+      <c r="D148" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="G148" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="1"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="17"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="17"/>
+      <c r="A150" s="37">
+        <v>53</v>
+      </c>
+      <c r="B150" s="57">
+        <v>44445</v>
+      </c>
+      <c r="C150" s="45">
+        <v>1</v>
+      </c>
+      <c r="D150" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="G150" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="17"/>
+      <c r="A151" s="38"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="62"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
@@ -4465,7 +4609,9 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -4677,15 +4823,6 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="17"/>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="1"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
+++ b/TS Jatai Working/TTD Pada PaaraayaNam-Padam.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE37071-C361-4134-B85C-AA2410FBFFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1 to 7" sheetId="1" r:id="rId1"/>
@@ -901,7 +902,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1338,6 +1339,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1373,6 +1391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1548,11 +1583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
@@ -4826,9 +4861,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H49" r:id="rId1"/>
-    <hyperlink ref="H51" r:id="rId2"/>
-    <hyperlink ref="H52" r:id="rId3"/>
+    <hyperlink ref="H49" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H51" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H52" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
